--- a/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051325.xlsx
+++ b/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051325.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B7F13E3-3E13-4ADC-861F-490C1D35F242}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11E149FD-624D-4E4E-88C1-BE47635CE7BB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>Cell</t>
   </si>
@@ -336,16 +336,10 @@
     <t>H3</t>
   </si>
   <si>
-    <t>4 D6</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
     <t>H5</t>
-  </si>
-  <si>
-    <t>8 D6</t>
   </si>
   <si>
     <t>H6</t>
@@ -748,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1744,46 +1738,50 @@
         <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.156</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
+        <v>80</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.156</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1">
+        <v>80</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F88" s="1">
         <v>1</v>
@@ -1791,61 +1789,37 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1">
-        <v>20</v>
-      </c>
-      <c r="F89" s="1">
-        <v>2</v>
-      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1">
-        <v>20</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1">
-        <v>20</v>
-      </c>
-      <c r="F91" s="1">
-        <v>2</v>
-      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1855,7 +1829,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1865,7 +1839,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1875,7 +1849,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1885,7 +1859,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1895,7 +1869,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>

--- a/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051325.xlsx
+++ b/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051325.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11E149FD-624D-4E4E-88C1-BE47635CE7BB}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/quonchow_usc_edu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BC0AA41-06CA-0A46-9A19-DBF10A627313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="17520" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
   <si>
     <t>Cell</t>
   </si>
@@ -336,10 +341,16 @@
     <t>H3</t>
   </si>
   <si>
+    <t>4 D6</t>
+  </si>
+  <si>
     <t>H4</t>
   </si>
   <si>
     <t>H5</t>
+  </si>
+  <si>
+    <t>8 D6</t>
   </si>
   <si>
     <t>H6</t>
@@ -367,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,7 +416,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,16 +753,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86:E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,7 +796,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -799,7 +810,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -815,7 +826,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -825,7 +836,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -835,7 +846,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -845,7 +856,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -855,7 +866,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -865,7 +876,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -875,7 +886,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -885,7 +896,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -895,7 +906,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -905,7 +916,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -921,7 +932,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -937,7 +948,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -945,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>1.25</v>
@@ -953,7 +964,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -963,7 +974,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -973,7 +984,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -983,7 +994,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -993,7 +1004,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1003,7 +1014,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1013,7 +1024,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1034,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1033,7 +1044,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1043,7 +1054,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1059,7 +1070,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1075,7 +1086,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1091,7 +1102,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1101,7 +1112,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1122,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1121,7 +1132,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1131,7 +1142,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1141,7 +1152,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1151,7 +1162,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1161,7 +1172,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -1171,7 +1182,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1181,7 +1192,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -1191,7 +1202,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1201,7 +1212,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -1211,7 +1222,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -1221,7 +1232,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -1231,7 +1242,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -1241,7 +1252,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -1251,7 +1262,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1261,7 +1272,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1271,7 +1282,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -1281,7 +1292,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -1291,7 +1302,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -1301,7 +1312,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -1337,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -1355,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -1365,7 +1376,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -1375,7 +1386,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -1385,7 +1396,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1406,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -1405,7 +1416,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -1415,7 +1426,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -1425,7 +1436,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -1435,7 +1446,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
@@ -1445,7 +1456,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -1481,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -1499,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -1509,7 +1520,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -1519,7 +1530,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -1529,7 +1540,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -1539,7 +1550,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -1549,7 +1560,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -1559,7 +1570,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -1569,7 +1580,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -1579,7 +1590,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -1589,7 +1600,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -1607,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -1625,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -1653,7 +1664,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -1663,7 +1674,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -1673,7 +1684,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -1683,7 +1694,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -1693,7 +1704,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -1703,7 +1714,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
@@ -1713,7 +1724,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
@@ -1723,7 +1734,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -1733,73 +1744,81 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F88" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="E89" s="1">
+        <v>20</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1807,29 +1826,19 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1837,9 +1846,9 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1847,9 +1856,9 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1857,9 +1866,9 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1867,9 +1876,9 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>

--- a/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051325.xlsx
+++ b/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051325.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/quonchow_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BC0AA41-06CA-0A46-9A19-DBF10A627313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{2BC0AA41-06CA-0A46-9A19-DBF10A627313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED7A9D0-288C-E74C-9FBB-598BEA36713D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="17520" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>Cell</t>
   </si>
@@ -341,16 +341,10 @@
     <t>H3</t>
   </si>
   <si>
-    <t>4 D6</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
     <t>H5</t>
-  </si>
-  <si>
-    <t>8 D6</t>
   </si>
   <si>
     <t>H6</t>
@@ -753,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:F97"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1749,14 +1743,14 @@
         <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
@@ -1767,17 +1761,17 @@
         <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -1785,14 +1779,14 @@
         <v>100</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F88" s="1">
         <v>1</v>
@@ -1800,25 +1794,17 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1">
-        <v>20</v>
-      </c>
-      <c r="F89" s="1">
-        <v>2</v>
-      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1828,17 +1814,17 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1848,7 +1834,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1858,7 +1844,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1868,7 +1854,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1878,7 +1864,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>

--- a/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051325.xlsx
+++ b/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051325.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/quonchow_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2BC0AA41-06CA-0A46-9A19-DBF10A627313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED7A9D0-288C-E74C-9FBB-598BEA36713D}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{2BC0AA41-06CA-0A46-9A19-DBF10A627313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AFF0B87-BD12-9F47-80F9-C2C98D59988D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="17520" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6220" yWindow="2020" windowWidth="17520" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>Cell</t>
   </si>
@@ -747,13 +747,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,12 +795,8 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
